--- a/Bibsam_tidskriftslistor/scifree_data_gruyter.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_gruyter.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C2E184C8-1D79-4DF0-B899-6A5053D4A0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACC6E544-1CEC-4857-B815-8EDEED6FEFB1}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{C2E184C8-1D79-4DF0-B899-6A5053D4A0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FB3AEF4-F192-4C32-99FF-5F2D2CC7B441}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{555F2B57-0DE3-44F7-85C6-A70D37746D81}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="1247">
   <si>
     <t>Imprint</t>
   </si>
@@ -152,15 +152,6 @@
     <t>http://www.degruyter.com/view/j/aofo</t>
   </si>
   <si>
-    <t>1945-3027</t>
-  </si>
-  <si>
-    <t>American Mineralogist</t>
-  </si>
-  <si>
-    <t>https://www.degruyter.com/ammin</t>
-  </si>
-  <si>
     <t>De Gruyter Oldenbourg</t>
   </si>
   <si>
@@ -359,24 +350,6 @@
     <t>http://www.degruyter.com/view/j/auto</t>
   </si>
   <si>
-    <t>2750-1949</t>
-  </si>
-  <si>
-    <t>Außeruniversitäre Aktion. Wissenschaft und Gesellschaft im Gespräch</t>
-  </si>
-  <si>
-    <t>https://www.degruyter.com/journal/key/aua/html</t>
-  </si>
-  <si>
-    <t>2300-0929</t>
-  </si>
-  <si>
-    <t>AUTEX Research Journal</t>
-  </si>
-  <si>
-    <t>https://www.degruyter.com/journal/key/aut/html</t>
-  </si>
-  <si>
     <t>1932-0183</t>
   </si>
   <si>
@@ -647,9 +620,6 @@
     <t>Corrosion Reviews</t>
   </si>
   <si>
-    <t>http://dx.doi.org/10.1515/corrrev</t>
-  </si>
-  <si>
     <t>2750-2562</t>
   </si>
   <si>
@@ -1055,15 +1025,6 @@
     <t>http://www.degruyter.com/view/j/gps</t>
   </si>
   <si>
-    <t>2197-0483</t>
-  </si>
-  <si>
-    <t>Helia</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/helia</t>
-  </si>
-  <si>
     <t>2191-0197</t>
   </si>
   <si>
@@ -1379,15 +1340,6 @@
     <t>http://dx.doi.org/10.1515/iasl</t>
   </si>
   <si>
-    <t>2196-6834</t>
-  </si>
-  <si>
-    <t>Internationales Jahrbuch für Medienphilosophie</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/jbmp</t>
-  </si>
-  <si>
     <t>2192-4287</t>
   </si>
   <si>
@@ -1562,15 +1514,6 @@
     <t>http://dx.doi.org/10.1515/jbcpp</t>
   </si>
   <si>
-    <t>2154-3186</t>
-  </si>
-  <si>
-    <t>Journal of Biosecurity, Biosafety and Biodefense Law</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/jbbbl</t>
-  </si>
-  <si>
     <t>1932-9156</t>
   </si>
   <si>
@@ -1982,15 +1925,6 @@
     <t>https://www.degruyter.com/jtc</t>
   </si>
   <si>
-    <t>2568-2407</t>
-  </si>
-  <si>
-    <t>Journal of Transition Medicine</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/jtm</t>
-  </si>
-  <si>
     <t>2224-4018</t>
   </si>
   <si>
@@ -2486,15 +2420,6 @@
     <t>http://www.degruyter.com/view/j/opag</t>
   </si>
   <si>
-    <t>2657-4233</t>
-  </si>
-  <si>
-    <t>Open Anthropological Research</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/opan</t>
-  </si>
-  <si>
     <t>2300-6560</t>
   </si>
   <si>
@@ -2621,15 +2546,6 @@
     <t>http://www.degruyter.com/view/j/med</t>
   </si>
   <si>
-    <t>2545-3254</t>
-  </si>
-  <si>
-    <t>Open Military Studies</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/openms</t>
-  </si>
-  <si>
     <t>2543-8875</t>
   </si>
   <si>
@@ -2666,15 +2582,6 @@
     <t>http://www.degruyter.com/view/j/opth</t>
   </si>
   <si>
-    <t>2544-8951</t>
-  </si>
-  <si>
-    <t>Open Veterinary Science</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/ovs</t>
-  </si>
-  <si>
     <t>2366-0481</t>
   </si>
   <si>
@@ -2720,15 +2627,6 @@
     <t>http://www.degruyter.com/view/j/pwp</t>
   </si>
   <si>
-    <t>2365-242X</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Technology in Hospital Pharmacy</t>
-  </si>
-  <si>
-    <t>https://www.degruyter.com/pthp</t>
-  </si>
-  <si>
     <t>2196-7008</t>
   </si>
   <si>
@@ -3095,15 +2993,6 @@
     <t>http://dx.doi.org/10.1515/soci</t>
   </si>
   <si>
-    <t>2366-0473</t>
-  </si>
-  <si>
-    <t>Soziale Systeme</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/sosys</t>
-  </si>
-  <si>
     <t>2366-0228</t>
   </si>
   <si>
@@ -3347,15 +3236,6 @@
     <t>http://www.degruyter.com/view/j/teme</t>
   </si>
   <si>
-    <t>2299-3231</t>
-  </si>
-  <si>
-    <t>Topological Algebra and its Applications</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/taa</t>
-  </si>
-  <si>
     <t>2081-6936</t>
   </si>
   <si>
@@ -3599,9 +3479,6 @@
     <t>2296-4126</t>
   </si>
   <si>
-    <t>Zeitschrift für Medienwissenschaften</t>
-  </si>
-  <si>
     <t>https://www.degruyter.com/view/j/zfmw</t>
   </si>
   <si>
@@ -3713,18 +3590,6 @@
     <t>http://www.degruyter.com/view/j/zfsoz</t>
   </si>
   <si>
-    <t>1613-3706</t>
-  </si>
-  <si>
-    <t>0721-9067</t>
-  </si>
-  <si>
-    <t>Zeitschrift für Sprachwissenschaft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dx.doi.org/10.1515/zfsw </t>
-  </si>
-  <si>
     <t>2366-0406</t>
   </si>
   <si>
@@ -3777,6 +3642,141 @@
   </si>
   <si>
     <t>https://www.degruyter.com/zfw</t>
+  </si>
+  <si>
+    <t>2235-5871</t>
+  </si>
+  <si>
+    <t>0004-4717</t>
+  </si>
+  <si>
+    <t>Asiatische Studien - Études Asiatiques</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/asia/html</t>
+  </si>
+  <si>
+    <t>2940-1445</t>
+  </si>
+  <si>
+    <t>Corpus-based Studies across Humanities</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/csh/html</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/corrrev/html</t>
+  </si>
+  <si>
+    <t>2943-0917</t>
+  </si>
+  <si>
+    <t>Cowrie: Comparative and World Literature</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/cwl/html</t>
+  </si>
+  <si>
+    <t>2943-0607</t>
+  </si>
+  <si>
+    <t>Digital Studies in Language and Literature</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/dsll/html</t>
+  </si>
+  <si>
+    <t>1938-5102</t>
+  </si>
+  <si>
+    <t>Florida Entomologist</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/flaent/html</t>
+  </si>
+  <si>
+    <t>2719-8073</t>
+  </si>
+  <si>
+    <t>Frigid Zone Medicine</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/fzm/html</t>
+  </si>
+  <si>
+    <t>2219-4029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Language Relationship </t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/jlr/html</t>
+  </si>
+  <si>
+    <t>2940-3693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Machine Design and Automation Intelligence </t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/jmdai/html</t>
+  </si>
+  <si>
+    <t>2752-2334</t>
+  </si>
+  <si>
+    <t>Journal of Nonlinear, Complex and Data Science</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/jncds/html</t>
+  </si>
+  <si>
+    <t>2688-4747</t>
+  </si>
+  <si>
+    <t>Journal of the Canadian Society for Syriac Studies</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/jcsss/html</t>
+  </si>
+  <si>
+    <t>1863-5490</t>
+  </si>
+  <si>
+    <t>Medizinische Genetik</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/medgen/html</t>
+  </si>
+  <si>
+    <t>2942-3899</t>
+  </si>
+  <si>
+    <t>Methods in Microscopy</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/mim/html</t>
+  </si>
+  <si>
+    <t>1765-2839</t>
+  </si>
+  <si>
+    <t>Oncologie</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/oncologie/html</t>
+  </si>
+  <si>
+    <t>2942-6812</t>
+  </si>
+  <si>
+    <t>Translational Exercise Biomedicine</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/teb/html</t>
+  </si>
+  <si>
+    <t>Zeitschrift für Medienwissenschaft</t>
   </si>
 </sst>
 </file>
@@ -3832,25 +3832,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25DA899A-35E9-4FA3-9F24-D06A7CC0CD8F}" name="Table1" displayName="Table1" ref="A1:G410" totalsRowShown="0">
-  <autoFilter ref="A1:G410" xr:uid="{25DA899A-35E9-4FA3-9F24-D06A7CC0CD8F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D24E5B29-57D4-4675-952C-C9376E0CCDE5}" name="Table2" displayName="Table2" ref="A1:G410" totalsRowShown="0">
+  <autoFilter ref="A1:G410" xr:uid="{D24E5B29-57D4-4675-952C-C9376E0CCDE5}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{36050080-F965-4657-B7AF-8F0DB1DA1BAE}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{FAF497EF-B36F-4BA0-84C6-1DC5DEC4B786}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{5373C21E-B0E5-48B2-83C9-B674FA696C8B}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{1B21CCE5-D1E8-40FA-B026-69C9C4D18042}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{6B336CB7-0E25-4CC6-BEB4-175B4ED331EF}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{E75D2769-475C-4F91-8ACD-EE5B512EEDC1}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{A116CF76-A49B-4D4B-9386-E0C2B08EE20F}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{0B06EFD0-F75E-426F-8668-7D93CF832E0B}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{CF36299F-E523-4191-9809-CF736B0E89A1}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{36CE4D8E-ABE5-4C9C-8F91-C1963F851CE3}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{F24A140B-BC40-4876-AA0F-B782584C80E9}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{BBAF8D50-4B40-4047-998B-6506D8E3C510}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{4D7983A9-29BA-49E2-8FF3-A71DC284FD1B}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{8FBB7791-8D72-4DC9-BCB9-7456F9AFD95B}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3888,7 +3888,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3994,7 +3994,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4136,14 +4136,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B0AA8-E867-4EB2-9B36-294C21B0E158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7B08F9-F39C-41B5-8EF5-795662D38CB5}">
   <dimension ref="A1:G410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4155,7 +4155,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -4349,16 +4349,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -4369,16 +4369,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4389,11 +4389,14 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
       <c r="D12" t="s">
         <v>47</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -4414,9 +4417,6 @@
       <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -4512,16 +4512,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -4532,11 +4532,14 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
       </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" t="s">
         <v>69</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -4552,14 +4555,11 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
       <c r="D20" t="s">
         <v>72</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -4727,7 +4727,7 @@
         <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -4747,7 +4747,7 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -4758,16 +4758,19 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>1202</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1203</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>1204</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>1205</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -4775,16 +4778,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -4798,16 +4801,16 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -4818,16 +4821,16 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -4838,13 +4841,13 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -4858,13 +4861,13 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -4875,16 +4878,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
         <v>119</v>
-      </c>
-      <c r="D36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" t="s">
-        <v>121</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -4898,13 +4901,13 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
         <v>122</v>
-      </c>
-      <c r="D37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" t="s">
-        <v>124</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -4915,16 +4918,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
         <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" t="s">
-        <v>128</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -4938,16 +4941,16 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -4958,13 +4961,13 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -4978,16 +4981,16 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -4998,16 +5001,16 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -5018,13 +5021,13 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -5038,13 +5041,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
       </c>
       <c r="D44" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
         <v>20</v>
@@ -5058,16 +5064,16 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -5078,16 +5084,13 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
         <v>20</v>
@@ -5098,19 +5101,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -5118,16 +5121,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
@@ -5138,19 +5141,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D49" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -5158,16 +5161,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F50" t="s">
         <v>20</v>
@@ -5181,16 +5184,16 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -5198,19 +5201,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -5218,16 +5221,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -5238,16 +5241,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -5258,19 +5261,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -5278,19 +5281,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -5301,13 +5307,16 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="C57" t="s">
+        <v>28</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -5321,19 +5330,16 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
-      </c>
-      <c r="C58" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -5344,16 +5350,16 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F59" t="s">
         <v>20</v>
@@ -5364,16 +5370,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
@@ -5387,16 +5393,13 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" t="s">
-        <v>28</v>
+        <v>1206</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>1207</v>
       </c>
       <c r="E61" t="s">
-        <v>197</v>
+        <v>1208</v>
       </c>
       <c r="F61" t="s">
         <v>20</v>
@@ -5407,19 +5410,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>200</v>
+        <v>1209</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -5430,16 +5433,16 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>1210</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>1211</v>
       </c>
       <c r="E63" t="s">
-        <v>203</v>
+        <v>1212</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -5450,13 +5453,13 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
@@ -5470,16 +5473,16 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E65" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
@@ -5493,16 +5496,16 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -5516,16 +5519,16 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -5539,16 +5542,16 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
       </c>
       <c r="D68" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E68" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
@@ -5562,13 +5565,13 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D69" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
@@ -5582,13 +5585,13 @@
         <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
@@ -5602,13 +5605,13 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E71" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
@@ -5622,13 +5625,13 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E72" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -5642,13 +5645,13 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F73" t="s">
         <v>20</v>
@@ -5662,13 +5665,13 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D74" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E74" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -5679,16 +5682,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F75" t="s">
         <v>11</v>
@@ -5702,13 +5705,13 @@
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>1213</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>1214</v>
       </c>
       <c r="E76" t="s">
-        <v>242</v>
+        <v>1215</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
@@ -5722,16 +5725,16 @@
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D77" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E77" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
@@ -5742,13 +5745,13 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="D78" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="E78" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
@@ -5762,16 +5765,16 @@
         <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D79" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E79" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -5782,13 +5785,13 @@
         <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D80" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E80" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
@@ -5802,16 +5805,16 @@
         <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E81" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -5819,16 +5822,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D82" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
@@ -5839,16 +5842,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D83" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="E83" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
@@ -5859,19 +5862,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D84" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E84" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
@@ -5879,19 +5882,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D85" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
@@ -5902,13 +5905,13 @@
         <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D86" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E86" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -5922,19 +5925,16 @@
         <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" t="s">
-        <v>28</v>
+        <v>260</v>
       </c>
       <c r="D87" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E87" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
@@ -5945,16 +5945,19 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
+        <v>263</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E88" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G88" t="s">
         <v>12</v>
@@ -5965,13 +5968,13 @@
         <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
@@ -5982,16 +5985,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D90" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F90" t="s">
         <v>11</v>
@@ -6002,16 +6005,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D91" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E91" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
@@ -6025,13 +6028,13 @@
         <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D92" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>
@@ -6045,13 +6048,13 @@
         <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D93" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E93" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
@@ -6065,13 +6068,13 @@
         <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D94" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E94" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F94" t="s">
         <v>11</v>
@@ -6085,13 +6088,13 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D95" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E95" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F95" t="s">
         <v>11</v>
@@ -6102,16 +6105,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D96" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E96" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
@@ -6122,19 +6125,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>303</v>
+        <v>1216</v>
       </c>
       <c r="D97" t="s">
-        <v>304</v>
+        <v>1217</v>
       </c>
       <c r="E97" t="s">
-        <v>305</v>
+        <v>1218</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -6142,16 +6145,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D98" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E98" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="F98" t="s">
         <v>11</v>
@@ -6162,16 +6165,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D99" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E99" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="F99" t="s">
         <v>11</v>
@@ -6185,13 +6188,13 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D100" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E100" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
@@ -6202,16 +6205,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D101" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E101" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="F101" t="s">
         <v>11</v>
@@ -6225,13 +6228,13 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D102" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E102" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="F102" t="s">
         <v>11</v>
@@ -6245,16 +6248,16 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>321</v>
+        <v>1219</v>
       </c>
       <c r="D103" t="s">
-        <v>322</v>
+        <v>1220</v>
       </c>
       <c r="E103" t="s">
-        <v>323</v>
+        <v>1221</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G103" t="s">
         <v>12</v>
@@ -6262,16 +6265,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D104" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="E104" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="F104" t="s">
         <v>11</v>
@@ -6285,13 +6288,13 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D105" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="E105" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
@@ -6305,13 +6308,13 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="D106" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="E106" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="F106" t="s">
         <v>11</v>
@@ -6322,16 +6325,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="D107" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="E107" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="F107" t="s">
         <v>11</v>
@@ -6345,19 +6348,16 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>336</v>
-      </c>
-      <c r="C108" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="D108" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="E108" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
         <v>12</v>
@@ -6368,13 +6368,13 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="D109" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E109" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
@@ -6385,22 +6385,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B110" t="s">
-        <v>342</v>
-      </c>
-      <c r="C110" t="s">
-        <v>28</v>
+        <v>323</v>
       </c>
       <c r="D110" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="E110" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
@@ -6411,16 +6408,16 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
       </c>
       <c r="D111" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="E111" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="F111" t="s">
         <v>20</v>
@@ -6431,19 +6428,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>348</v>
+        <v>329</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
       </c>
       <c r="D112" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="E112" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
@@ -6454,16 +6454,19 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>351</v>
+        <v>332</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
       </c>
       <c r="D113" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="E113" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
@@ -6471,16 +6474,16 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E114" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="F114" t="s">
         <v>11</v>
@@ -6494,13 +6497,13 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D115" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E115" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="F115" t="s">
         <v>11</v>
@@ -6514,16 +6517,16 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="D116" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="E116" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G116" t="s">
         <v>12</v>
@@ -6534,13 +6537,13 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D117" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E117" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="F117" t="s">
         <v>11</v>
@@ -6551,19 +6554,19 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="D118" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E118" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G118" t="s">
         <v>12</v>
@@ -6574,13 +6577,13 @@
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D119" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="E119" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="F119" t="s">
         <v>11</v>
@@ -6591,16 +6594,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B120" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="D120" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E120" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
@@ -6611,19 +6614,19 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D121" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="E121" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
@@ -6634,13 +6637,13 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="D122" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="E122" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="F122" t="s">
         <v>11</v>
@@ -6651,19 +6654,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="B123" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="D123" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E123" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
@@ -6674,13 +6677,13 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="D124" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E124" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F124" t="s">
         <v>11</v>
@@ -6691,22 +6694,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B125" t="s">
-        <v>387</v>
-      </c>
-      <c r="C125" t="s">
-        <v>28</v>
+        <v>368</v>
       </c>
       <c r="D125" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="E125" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G125" t="s">
         <v>12</v>
@@ -6717,16 +6717,16 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D126" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="E126" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="F126" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
         <v>12</v>
@@ -6734,19 +6734,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>393</v>
+        <v>374</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="E127" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G127" t="s">
         <v>12</v>
@@ -6757,13 +6760,13 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="D128" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="E128" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="F128" t="s">
         <v>20</v>
@@ -6774,19 +6777,19 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="D129" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="E129" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
         <v>12</v>
@@ -6797,16 +6800,16 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="D130" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="E130" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G130" t="s">
         <v>12</v>
@@ -6817,16 +6820,16 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D131" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="E131" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G131" t="s">
         <v>12</v>
@@ -6837,16 +6840,16 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="D132" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E132" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
         <v>12</v>
@@ -6857,13 +6860,13 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="D133" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="E133" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="F133" t="s">
         <v>11</v>
@@ -6877,16 +6880,16 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="D134" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="E134" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G134" t="s">
         <v>12</v>
@@ -6894,16 +6897,16 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D135" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="E135" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="F135" t="s">
         <v>11</v>
@@ -6917,13 +6920,13 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="D136" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="E136" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
@@ -6934,16 +6937,16 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B137" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D137" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="E137" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="F137" t="s">
         <v>11</v>
@@ -6957,13 +6960,13 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="D138" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E138" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="F138" t="s">
         <v>11</v>
@@ -6974,16 +6977,16 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D139" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="E139" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
@@ -6997,13 +7000,13 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D140" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="E140" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="F140" t="s">
         <v>11</v>
@@ -7014,16 +7017,16 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B141" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="D141" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="E141" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="F141" t="s">
         <v>11</v>
@@ -7034,16 +7037,16 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="D142" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="E142" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
@@ -7054,16 +7057,16 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="D143" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="E143" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="F143" t="s">
         <v>11</v>
@@ -7074,16 +7077,16 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="D144" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="E144" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
@@ -7094,16 +7097,16 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B145" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="D145" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="E145" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F145" t="s">
         <v>11</v>
@@ -7114,16 +7117,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="D146" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="E146" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="F146" t="s">
         <v>11</v>
@@ -7134,16 +7137,16 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B147" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="D147" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="E147" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="F147" t="s">
         <v>11</v>
@@ -7154,16 +7157,16 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B148" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="D148" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="E148" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="F148" t="s">
         <v>11</v>
@@ -7177,13 +7180,13 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="D149" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="F149" t="s">
         <v>11</v>
@@ -7197,13 +7200,13 @@
         <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="D150" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="E150" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="F150" t="s">
         <v>11</v>
@@ -7217,13 +7220,13 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="D151" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="E151" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
@@ -7234,16 +7237,16 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="D152" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="E152" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="F152" t="s">
         <v>11</v>
@@ -7254,16 +7257,16 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>41</v>
+        <v>452</v>
       </c>
       <c r="B153" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="D153" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="E153" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="F153" t="s">
         <v>11</v>
@@ -7274,16 +7277,16 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B154" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="D154" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="E154" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="F154" t="s">
         <v>11</v>
@@ -7297,13 +7300,13 @@
         <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="D155" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="E155" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="F155" t="s">
         <v>11</v>
@@ -7317,13 +7320,13 @@
         <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="D156" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="E156" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="F156" t="s">
         <v>11</v>
@@ -7337,13 +7340,13 @@
         <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="D157" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="E157" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="F157" t="s">
         <v>11</v>
@@ -7354,16 +7357,16 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="D158" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="E158" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="F158" t="s">
         <v>11</v>
@@ -7374,16 +7377,16 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B159" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="D159" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="E159" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
@@ -7397,13 +7400,13 @@
         <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="D160" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="E160" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="F160" t="s">
         <v>11</v>
@@ -7417,13 +7420,13 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D161" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="E161" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
@@ -7437,13 +7440,13 @@
         <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="D162" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="E162" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="F162" t="s">
         <v>11</v>
@@ -7457,13 +7460,13 @@
         <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="D163" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="E163" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="F163" t="s">
         <v>11</v>
@@ -7477,13 +7480,13 @@
         <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="D164" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="E164" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="F164" t="s">
         <v>11</v>
@@ -7497,13 +7500,13 @@
         <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="D165" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="E165" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="F165" t="s">
         <v>11</v>
@@ -7517,13 +7520,13 @@
         <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="D166" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="E166" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F166" t="s">
         <v>11</v>
@@ -7537,13 +7540,13 @@
         <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="D167" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="E167" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="F167" t="s">
         <v>20</v>
@@ -7557,13 +7560,13 @@
         <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D168" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="E168" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="F168" t="s">
         <v>20</v>
@@ -7577,13 +7580,13 @@
         <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="D169" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="E169" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="F169" t="s">
         <v>11</v>
@@ -7597,13 +7600,13 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="D170" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="E170" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="F170" t="s">
         <v>11</v>
@@ -7617,13 +7620,13 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="D171" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="E171" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="F171" t="s">
         <v>11</v>
@@ -7637,13 +7640,13 @@
         <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="D172" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="E172" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="F172" t="s">
         <v>20</v>
@@ -7657,13 +7660,13 @@
         <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="D173" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="E173" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="F173" t="s">
         <v>20</v>
@@ -7677,13 +7680,13 @@
         <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="D174" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="E174" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
@@ -7697,13 +7700,13 @@
         <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="D175" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="E175" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="F175" t="s">
         <v>11</v>
@@ -7714,16 +7717,16 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B176" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="D176" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="E176" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="F176" t="s">
         <v>11</v>
@@ -7737,13 +7740,13 @@
         <v>7</v>
       </c>
       <c r="B177" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="D177" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="E177" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="F177" t="s">
         <v>11</v>
@@ -7757,16 +7760,16 @@
         <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
       </c>
       <c r="D178" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="E178" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="F178" t="s">
         <v>20</v>
@@ -7780,13 +7783,13 @@
         <v>7</v>
       </c>
       <c r="B179" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="D179" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="E179" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="F179" t="s">
         <v>11</v>
@@ -7800,13 +7803,13 @@
         <v>7</v>
       </c>
       <c r="B180" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="D180" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="E180" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="F180" t="s">
         <v>11</v>
@@ -7817,16 +7820,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B181" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="D181" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="E181" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="F181" t="s">
         <v>11</v>
@@ -7840,13 +7843,13 @@
         <v>7</v>
       </c>
       <c r="B182" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="D182" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="E182" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="F182" t="s">
         <v>11</v>
@@ -7860,13 +7863,13 @@
         <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="D183" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="E183" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="F183" t="s">
         <v>11</v>
@@ -7880,16 +7883,16 @@
         <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
       </c>
       <c r="D184" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="E184" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="F184" t="s">
         <v>20</v>
@@ -7903,13 +7906,13 @@
         <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="D185" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="E185" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="F185" t="s">
         <v>20</v>
@@ -7923,13 +7926,13 @@
         <v>7</v>
       </c>
       <c r="B186" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="D186" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="E186" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="F186" t="s">
         <v>11</v>
@@ -7940,16 +7943,16 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B187" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="D187" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="E187" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="F187" t="s">
         <v>11</v>
@@ -7963,13 +7966,13 @@
         <v>7</v>
       </c>
       <c r="B188" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="D188" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="E188" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="F188" t="s">
         <v>20</v>
@@ -7980,19 +7983,19 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>579</v>
+        <v>1222</v>
       </c>
       <c r="D189" t="s">
-        <v>580</v>
+        <v>1223</v>
       </c>
       <c r="E189" t="s">
-        <v>581</v>
+        <v>1224</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G189" t="s">
         <v>12</v>
@@ -8000,16 +8003,16 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B190" t="s">
-        <v>582</v>
+        <v>560</v>
       </c>
       <c r="D190" t="s">
-        <v>583</v>
+        <v>561</v>
       </c>
       <c r="E190" t="s">
-        <v>584</v>
+        <v>562</v>
       </c>
       <c r="F190" t="s">
         <v>11</v>
@@ -8020,16 +8023,16 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B191" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="D191" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="E191" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="F191" t="s">
         <v>11</v>
@@ -8043,16 +8046,16 @@
         <v>7</v>
       </c>
       <c r="B192" t="s">
-        <v>588</v>
+        <v>566</v>
       </c>
       <c r="D192" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="E192" t="s">
-        <v>590</v>
+        <v>568</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G192" t="s">
         <v>12</v>
@@ -8063,16 +8066,16 @@
         <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>591</v>
+        <v>1225</v>
       </c>
       <c r="D193" t="s">
-        <v>592</v>
+        <v>1226</v>
       </c>
       <c r="E193" t="s">
-        <v>593</v>
+        <v>1227</v>
       </c>
       <c r="F193" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G193" t="s">
         <v>12</v>
@@ -8083,16 +8086,16 @@
         <v>7</v>
       </c>
       <c r="B194" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="D194" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="E194" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G194" t="s">
         <v>12</v>
@@ -8103,13 +8106,13 @@
         <v>7</v>
       </c>
       <c r="B195" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="D195" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="E195" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="F195" t="s">
         <v>11</v>
@@ -8123,16 +8126,16 @@
         <v>7</v>
       </c>
       <c r="B196" t="s">
-        <v>600</v>
+        <v>1228</v>
       </c>
       <c r="D196" t="s">
-        <v>601</v>
+        <v>1229</v>
       </c>
       <c r="E196" t="s">
-        <v>602</v>
+        <v>1230</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G196" t="s">
         <v>12</v>
@@ -8143,16 +8146,16 @@
         <v>7</v>
       </c>
       <c r="B197" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="D197" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="E197" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="F197" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G197" t="s">
         <v>12</v>
@@ -8163,13 +8166,13 @@
         <v>7</v>
       </c>
       <c r="B198" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="D198" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="E198" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="F198" t="s">
         <v>11</v>
@@ -8183,16 +8186,16 @@
         <v>7</v>
       </c>
       <c r="B199" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="D199" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="E199" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G199" t="s">
         <v>12</v>
@@ -8200,19 +8203,19 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B200" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="D200" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="E200" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G200" t="s">
         <v>12</v>
@@ -8223,13 +8226,13 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="D201" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="E201" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="F201" t="s">
         <v>11</v>
@@ -8243,13 +8246,13 @@
         <v>7</v>
       </c>
       <c r="B202" t="s">
-        <v>618</v>
+        <v>590</v>
       </c>
       <c r="D202" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="E202" t="s">
-        <v>620</v>
+        <v>592</v>
       </c>
       <c r="F202" t="s">
         <v>11</v>
@@ -8260,16 +8263,16 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B203" t="s">
-        <v>621</v>
+        <v>593</v>
       </c>
       <c r="D203" t="s">
-        <v>622</v>
+        <v>594</v>
       </c>
       <c r="E203" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="F203" t="s">
         <v>11</v>
@@ -8283,13 +8286,13 @@
         <v>7</v>
       </c>
       <c r="B204" t="s">
-        <v>624</v>
+        <v>596</v>
       </c>
       <c r="D204" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="E204" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
       <c r="F204" t="s">
         <v>11</v>
@@ -8300,16 +8303,16 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="B205" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="D205" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="E205" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="F205" t="s">
         <v>11</v>
@@ -8320,16 +8323,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B206" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="D206" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="E206" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="F206" t="s">
         <v>11</v>
@@ -8343,19 +8346,16 @@
         <v>7</v>
       </c>
       <c r="B207" t="s">
-        <v>633</v>
-      </c>
-      <c r="C207" t="s">
-        <v>28</v>
+        <v>605</v>
       </c>
       <c r="D207" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="E207" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="F207" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G207" t="s">
         <v>12</v>
@@ -8366,16 +8366,16 @@
         <v>7</v>
       </c>
       <c r="B208" t="s">
-        <v>636</v>
+        <v>1231</v>
       </c>
       <c r="D208" t="s">
-        <v>637</v>
+        <v>1232</v>
       </c>
       <c r="E208" t="s">
-        <v>638</v>
+        <v>1233</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G208" t="s">
         <v>12</v>
@@ -8383,16 +8383,16 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>7</v>
+        <v>452</v>
       </c>
       <c r="B209" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="D209" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="E209" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="F209" t="s">
         <v>11</v>
@@ -8403,16 +8403,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="D210" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="E210" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="F210" t="s">
         <v>11</v>
@@ -8426,13 +8426,16 @@
         <v>7</v>
       </c>
       <c r="B211" t="s">
-        <v>645</v>
+        <v>614</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
       </c>
       <c r="D211" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
       <c r="E211" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="F211" t="s">
         <v>20</v>
@@ -8446,19 +8449,16 @@
         <v>7</v>
       </c>
       <c r="B212" t="s">
-        <v>648</v>
-      </c>
-      <c r="C212" t="s">
-        <v>28</v>
+        <v>617</v>
       </c>
       <c r="D212" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="E212" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G212" t="s">
         <v>12</v>
@@ -8469,16 +8469,16 @@
         <v>7</v>
       </c>
       <c r="B213" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
       <c r="D213" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="E213" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="F213" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G213" t="s">
         <v>12</v>
@@ -8489,16 +8489,16 @@
         <v>7</v>
       </c>
       <c r="B214" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="D214" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="E214" t="s">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G214" t="s">
         <v>12</v>
@@ -8509,16 +8509,16 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="D215" t="s">
-        <v>658</v>
+        <v>627</v>
       </c>
       <c r="E215" t="s">
-        <v>659</v>
+        <v>628</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G215" t="s">
         <v>12</v>
@@ -8529,16 +8529,16 @@
         <v>7</v>
       </c>
       <c r="B216" t="s">
-        <v>660</v>
+        <v>629</v>
       </c>
       <c r="D216" t="s">
-        <v>661</v>
+        <v>630</v>
       </c>
       <c r="E216" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G216" t="s">
         <v>12</v>
@@ -8546,19 +8546,19 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B217" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="D217" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="E217" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="F217" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G217" t="s">
         <v>12</v>
@@ -8569,13 +8569,13 @@
         <v>7</v>
       </c>
       <c r="B218" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="D218" t="s">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="E218" t="s">
-        <v>668</v>
+        <v>637</v>
       </c>
       <c r="F218" t="s">
         <v>11</v>
@@ -8589,13 +8589,13 @@
         <v>7</v>
       </c>
       <c r="B219" t="s">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="D219" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="E219" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="F219" t="s">
         <v>11</v>
@@ -8606,16 +8606,16 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="D220" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="E220" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="F220" t="s">
         <v>11</v>
@@ -8629,13 +8629,13 @@
         <v>7</v>
       </c>
       <c r="B221" t="s">
-        <v>675</v>
+        <v>644</v>
       </c>
       <c r="D221" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="E221" t="s">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="F221" t="s">
         <v>11</v>
@@ -8646,16 +8646,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B222" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="D222" t="s">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="E222" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="F222" t="s">
         <v>11</v>
@@ -8669,16 +8669,16 @@
         <v>7</v>
       </c>
       <c r="B223" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="D223" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="E223" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="F223" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G223" t="s">
         <v>12</v>
@@ -8689,13 +8689,13 @@
         <v>7</v>
       </c>
       <c r="B224" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="D224" t="s">
-        <v>685</v>
+        <v>654</v>
       </c>
       <c r="E224" t="s">
-        <v>686</v>
+        <v>655</v>
       </c>
       <c r="F224" t="s">
         <v>11</v>
@@ -8706,19 +8706,19 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B225" t="s">
-        <v>687</v>
+        <v>656</v>
       </c>
       <c r="D225" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="E225" t="s">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="F225" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G225" t="s">
         <v>12</v>
@@ -8726,19 +8726,19 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B226" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="D226" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="E226" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G226" t="s">
         <v>12</v>
@@ -8749,13 +8749,13 @@
         <v>7</v>
       </c>
       <c r="B227" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="D227" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="E227" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="F227" t="s">
         <v>11</v>
@@ -8769,16 +8769,16 @@
         <v>7</v>
       </c>
       <c r="B228" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="D228" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="E228" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="F228" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G228" t="s">
         <v>12</v>
@@ -8786,16 +8786,16 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B229" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="D229" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="E229" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="F229" t="s">
         <v>11</v>
@@ -8806,16 +8806,16 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="D230" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="E230" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="F230" t="s">
         <v>11</v>
@@ -8826,16 +8826,16 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B231" t="s">
-        <v>705</v>
+        <v>674</v>
       </c>
       <c r="D231" t="s">
-        <v>706</v>
+        <v>675</v>
       </c>
       <c r="E231" t="s">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="F231" t="s">
         <v>11</v>
@@ -8846,16 +8846,16 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B232" t="s">
-        <v>708</v>
+        <v>677</v>
       </c>
       <c r="D232" t="s">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="E232" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="F232" t="s">
         <v>11</v>
@@ -8866,16 +8866,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B233" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="D233" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="E233" t="s">
-        <v>713</v>
+        <v>682</v>
       </c>
       <c r="F233" t="s">
         <v>11</v>
@@ -8886,16 +8886,16 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B234" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="D234" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="E234" t="s">
-        <v>716</v>
+        <v>685</v>
       </c>
       <c r="F234" t="s">
         <v>11</v>
@@ -8906,22 +8906,19 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B235" t="s">
-        <v>717</v>
-      </c>
-      <c r="C235" t="s">
-        <v>28</v>
+        <v>686</v>
       </c>
       <c r="D235" t="s">
-        <v>718</v>
+        <v>687</v>
       </c>
       <c r="E235" t="s">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="F235" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G235" t="s">
         <v>12</v>
@@ -8929,16 +8926,16 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B236" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="D236" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="E236" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="F236" t="s">
         <v>11</v>
@@ -8949,16 +8946,16 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B237" t="s">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="D237" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="E237" t="s">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="F237" t="s">
         <v>11</v>
@@ -8969,19 +8966,22 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B238" t="s">
-        <v>726</v>
+        <v>695</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
       </c>
       <c r="D238" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="E238" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
       <c r="F238" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G238" t="s">
         <v>12</v>
@@ -8992,13 +8992,13 @@
         <v>7</v>
       </c>
       <c r="B239" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="D239" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="E239" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="F239" t="s">
         <v>11</v>
@@ -9012,13 +9012,13 @@
         <v>7</v>
       </c>
       <c r="B240" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="D240" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="E240" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="F240" t="s">
         <v>11</v>
@@ -9029,19 +9029,19 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B241" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="D241" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
       <c r="E241" t="s">
-        <v>737</v>
+        <v>706</v>
       </c>
       <c r="F241" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G241" t="s">
         <v>12</v>
@@ -9052,13 +9052,13 @@
         <v>7</v>
       </c>
       <c r="B242" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="D242" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="E242" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
       <c r="F242" t="s">
         <v>11</v>
@@ -9069,16 +9069,16 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B243" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="D243" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
       <c r="E243" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="F243" t="s">
         <v>11</v>
@@ -9092,16 +9092,16 @@
         <v>7</v>
       </c>
       <c r="B244" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="D244" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="E244" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="F244" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G244" t="s">
         <v>12</v>
@@ -9112,16 +9112,16 @@
         <v>7</v>
       </c>
       <c r="B245" t="s">
-        <v>747</v>
+        <v>1234</v>
       </c>
       <c r="D245" t="s">
-        <v>748</v>
+        <v>1235</v>
       </c>
       <c r="E245" t="s">
-        <v>749</v>
+        <v>1236</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G245" t="s">
         <v>12</v>
@@ -9132,16 +9132,16 @@
         <v>7</v>
       </c>
       <c r="B246" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
       <c r="D246" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="E246" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="F246" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G246" t="s">
         <v>12</v>
@@ -9152,16 +9152,16 @@
         <v>7</v>
       </c>
       <c r="B247" t="s">
-        <v>753</v>
+        <v>1237</v>
       </c>
       <c r="D247" t="s">
-        <v>754</v>
+        <v>1238</v>
       </c>
       <c r="E247" t="s">
-        <v>755</v>
+        <v>1239</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G247" t="s">
         <v>12</v>
@@ -9169,16 +9169,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B248" t="s">
-        <v>756</v>
+        <v>719</v>
       </c>
       <c r="D248" t="s">
-        <v>757</v>
+        <v>720</v>
       </c>
       <c r="E248" t="s">
-        <v>758</v>
+        <v>721</v>
       </c>
       <c r="F248" t="s">
         <v>11</v>
@@ -9192,13 +9192,13 @@
         <v>7</v>
       </c>
       <c r="B249" t="s">
-        <v>759</v>
+        <v>722</v>
       </c>
       <c r="D249" t="s">
-        <v>760</v>
+        <v>723</v>
       </c>
       <c r="E249" t="s">
-        <v>761</v>
+        <v>724</v>
       </c>
       <c r="F249" t="s">
         <v>11</v>
@@ -9209,16 +9209,16 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B250" t="s">
-        <v>762</v>
+        <v>725</v>
       </c>
       <c r="D250" t="s">
-        <v>763</v>
+        <v>726</v>
       </c>
       <c r="E250" t="s">
-        <v>764</v>
+        <v>727</v>
       </c>
       <c r="F250" t="s">
         <v>11</v>
@@ -9229,19 +9229,19 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B251" t="s">
-        <v>765</v>
+        <v>728</v>
       </c>
       <c r="D251" t="s">
-        <v>766</v>
+        <v>729</v>
       </c>
       <c r="E251" t="s">
-        <v>767</v>
+        <v>730</v>
       </c>
       <c r="F251" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G251" t="s">
         <v>12</v>
@@ -9252,13 +9252,13 @@
         <v>7</v>
       </c>
       <c r="B252" t="s">
-        <v>768</v>
+        <v>731</v>
       </c>
       <c r="D252" t="s">
-        <v>769</v>
+        <v>732</v>
       </c>
       <c r="E252" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
       <c r="F252" t="s">
         <v>11</v>
@@ -9272,13 +9272,13 @@
         <v>7</v>
       </c>
       <c r="B253" t="s">
-        <v>771</v>
+        <v>734</v>
       </c>
       <c r="D253" t="s">
-        <v>772</v>
+        <v>735</v>
       </c>
       <c r="E253" t="s">
-        <v>773</v>
+        <v>736</v>
       </c>
       <c r="F253" t="s">
         <v>11</v>
@@ -9292,19 +9292,16 @@
         <v>7</v>
       </c>
       <c r="B254" t="s">
-        <v>774</v>
-      </c>
-      <c r="C254" t="s">
-        <v>28</v>
+        <v>737</v>
       </c>
       <c r="D254" t="s">
-        <v>775</v>
+        <v>738</v>
       </c>
       <c r="E254" t="s">
-        <v>776</v>
+        <v>739</v>
       </c>
       <c r="F254" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G254" t="s">
         <v>12</v>
@@ -9312,22 +9309,19 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B255" t="s">
-        <v>777</v>
-      </c>
-      <c r="C255" t="s">
-        <v>28</v>
+        <v>740</v>
       </c>
       <c r="D255" t="s">
-        <v>778</v>
+        <v>741</v>
       </c>
       <c r="E255" t="s">
-        <v>779</v>
+        <v>742</v>
       </c>
       <c r="F255" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G255" t="s">
         <v>12</v>
@@ -9335,16 +9329,16 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B256" t="s">
-        <v>780</v>
+        <v>743</v>
       </c>
       <c r="D256" t="s">
-        <v>781</v>
+        <v>744</v>
       </c>
       <c r="E256" t="s">
-        <v>782</v>
+        <v>745</v>
       </c>
       <c r="F256" t="s">
         <v>11</v>
@@ -9358,16 +9352,16 @@
         <v>7</v>
       </c>
       <c r="B257" t="s">
-        <v>783</v>
+        <v>746</v>
       </c>
       <c r="D257" t="s">
-        <v>784</v>
+        <v>747</v>
       </c>
       <c r="E257" t="s">
-        <v>785</v>
+        <v>748</v>
       </c>
       <c r="F257" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G257" t="s">
         <v>12</v>
@@ -9378,13 +9372,13 @@
         <v>7</v>
       </c>
       <c r="B258" t="s">
-        <v>786</v>
+        <v>749</v>
       </c>
       <c r="D258" t="s">
-        <v>787</v>
+        <v>750</v>
       </c>
       <c r="E258" t="s">
-        <v>788</v>
+        <v>751</v>
       </c>
       <c r="F258" t="s">
         <v>11</v>
@@ -9395,19 +9389,22 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B259" t="s">
-        <v>789</v>
+        <v>752</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
       </c>
       <c r="D259" t="s">
-        <v>790</v>
+        <v>753</v>
       </c>
       <c r="E259" t="s">
-        <v>791</v>
+        <v>754</v>
       </c>
       <c r="F259" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G259" t="s">
         <v>12</v>
@@ -9418,16 +9415,19 @@
         <v>7</v>
       </c>
       <c r="B260" t="s">
-        <v>792</v>
+        <v>755</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
       </c>
       <c r="D260" t="s">
-        <v>793</v>
+        <v>756</v>
       </c>
       <c r="E260" t="s">
-        <v>794</v>
+        <v>757</v>
       </c>
       <c r="F260" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G260" t="s">
         <v>12</v>
@@ -9438,19 +9438,16 @@
         <v>7</v>
       </c>
       <c r="B261" t="s">
-        <v>795</v>
-      </c>
-      <c r="C261" t="s">
-        <v>28</v>
+        <v>758</v>
       </c>
       <c r="D261" t="s">
-        <v>796</v>
+        <v>759</v>
       </c>
       <c r="E261" t="s">
-        <v>797</v>
+        <v>760</v>
       </c>
       <c r="F261" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G261" t="s">
         <v>12</v>
@@ -9461,16 +9458,13 @@
         <v>7</v>
       </c>
       <c r="B262" t="s">
-        <v>798</v>
-      </c>
-      <c r="C262" t="s">
-        <v>28</v>
+        <v>761</v>
       </c>
       <c r="D262" t="s">
-        <v>799</v>
+        <v>762</v>
       </c>
       <c r="E262" t="s">
-        <v>800</v>
+        <v>763</v>
       </c>
       <c r="F262" t="s">
         <v>20</v>
@@ -9484,19 +9478,16 @@
         <v>7</v>
       </c>
       <c r="B263" t="s">
-        <v>801</v>
-      </c>
-      <c r="C263" t="s">
-        <v>28</v>
+        <v>764</v>
       </c>
       <c r="D263" t="s">
-        <v>802</v>
+        <v>765</v>
       </c>
       <c r="E263" t="s">
-        <v>803</v>
+        <v>766</v>
       </c>
       <c r="F263" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G263" t="s">
         <v>12</v>
@@ -9504,22 +9495,19 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B264" t="s">
-        <v>804</v>
-      </c>
-      <c r="C264" t="s">
-        <v>28</v>
+        <v>767</v>
       </c>
       <c r="D264" t="s">
-        <v>805</v>
+        <v>768</v>
       </c>
       <c r="E264" t="s">
-        <v>806</v>
+        <v>769</v>
       </c>
       <c r="F264" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G264" t="s">
         <v>12</v>
@@ -9530,13 +9518,13 @@
         <v>7</v>
       </c>
       <c r="B265" t="s">
-        <v>807</v>
+        <v>770</v>
       </c>
       <c r="D265" t="s">
-        <v>808</v>
+        <v>771</v>
       </c>
       <c r="E265" t="s">
-        <v>809</v>
+        <v>772</v>
       </c>
       <c r="F265" t="s">
         <v>11</v>
@@ -9550,13 +9538,16 @@
         <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>810</v>
+        <v>773</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
       </c>
       <c r="D266" t="s">
-        <v>811</v>
+        <v>774</v>
       </c>
       <c r="E266" t="s">
-        <v>812</v>
+        <v>775</v>
       </c>
       <c r="F266" t="s">
         <v>20</v>
@@ -9570,16 +9561,16 @@
         <v>7</v>
       </c>
       <c r="B267" t="s">
-        <v>813</v>
+        <v>776</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
       </c>
       <c r="D267" t="s">
-        <v>814</v>
+        <v>777</v>
       </c>
       <c r="E267" t="s">
-        <v>815</v>
+        <v>778</v>
       </c>
       <c r="F267" t="s">
         <v>20</v>
@@ -9593,16 +9584,16 @@
         <v>7</v>
       </c>
       <c r="B268" t="s">
-        <v>816</v>
+        <v>779</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
       </c>
       <c r="D268" t="s">
-        <v>817</v>
+        <v>780</v>
       </c>
       <c r="E268" t="s">
-        <v>818</v>
+        <v>781</v>
       </c>
       <c r="F268" t="s">
         <v>20</v>
@@ -9616,16 +9607,16 @@
         <v>7</v>
       </c>
       <c r="B269" t="s">
-        <v>819</v>
+        <v>782</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
       </c>
       <c r="D269" t="s">
-        <v>820</v>
+        <v>783</v>
       </c>
       <c r="E269" t="s">
-        <v>821</v>
+        <v>784</v>
       </c>
       <c r="F269" t="s">
         <v>20</v>
@@ -9639,19 +9630,16 @@
         <v>7</v>
       </c>
       <c r="B270" t="s">
-        <v>822</v>
-      </c>
-      <c r="C270" t="s">
-        <v>28</v>
+        <v>785</v>
       </c>
       <c r="D270" t="s">
-        <v>823</v>
+        <v>786</v>
       </c>
       <c r="E270" t="s">
-        <v>824</v>
+        <v>787</v>
       </c>
       <c r="F270" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G270" t="s">
         <v>12</v>
@@ -9662,16 +9650,13 @@
         <v>7</v>
       </c>
       <c r="B271" t="s">
-        <v>825</v>
-      </c>
-      <c r="C271" t="s">
-        <v>28</v>
+        <v>1240</v>
       </c>
       <c r="D271" t="s">
-        <v>826</v>
+        <v>1241</v>
       </c>
       <c r="E271" t="s">
-        <v>827</v>
+        <v>1242</v>
       </c>
       <c r="F271" t="s">
         <v>20</v>
@@ -9685,16 +9670,13 @@
         <v>7</v>
       </c>
       <c r="B272" t="s">
-        <v>828</v>
-      </c>
-      <c r="C272" t="s">
-        <v>28</v>
+        <v>788</v>
       </c>
       <c r="D272" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
       <c r="E272" t="s">
-        <v>830</v>
+        <v>790</v>
       </c>
       <c r="F272" t="s">
         <v>20</v>
@@ -9708,16 +9690,16 @@
         <v>7</v>
       </c>
       <c r="B273" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
       </c>
       <c r="D273" t="s">
-        <v>832</v>
+        <v>792</v>
       </c>
       <c r="E273" t="s">
-        <v>833</v>
+        <v>793</v>
       </c>
       <c r="F273" t="s">
         <v>20</v>
@@ -9731,16 +9713,16 @@
         <v>7</v>
       </c>
       <c r="B274" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
       </c>
       <c r="D274" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
       <c r="E274" t="s">
-        <v>836</v>
+        <v>796</v>
       </c>
       <c r="F274" t="s">
         <v>20</v>
@@ -9754,16 +9736,16 @@
         <v>7</v>
       </c>
       <c r="B275" t="s">
-        <v>837</v>
+        <v>797</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
       </c>
       <c r="D275" t="s">
-        <v>838</v>
+        <v>798</v>
       </c>
       <c r="E275" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
       <c r="F275" t="s">
         <v>20</v>
@@ -9777,16 +9759,16 @@
         <v>7</v>
       </c>
       <c r="B276" t="s">
-        <v>840</v>
+        <v>800</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
       </c>
       <c r="D276" t="s">
-        <v>841</v>
+        <v>801</v>
       </c>
       <c r="E276" t="s">
-        <v>842</v>
+        <v>802</v>
       </c>
       <c r="F276" t="s">
         <v>20</v>
@@ -9800,13 +9782,16 @@
         <v>7</v>
       </c>
       <c r="B277" t="s">
-        <v>843</v>
+        <v>803</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
       </c>
       <c r="D277" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
       <c r="E277" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="F277" t="s">
         <v>20</v>
@@ -9820,16 +9805,16 @@
         <v>7</v>
       </c>
       <c r="B278" t="s">
-        <v>846</v>
+        <v>806</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
       </c>
       <c r="D278" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
       <c r="E278" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
       <c r="F278" t="s">
         <v>20</v>
@@ -9843,16 +9828,16 @@
         <v>7</v>
       </c>
       <c r="B279" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
       </c>
       <c r="D279" t="s">
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="E279" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
       <c r="F279" t="s">
         <v>20</v>
@@ -9866,16 +9851,16 @@
         <v>7</v>
       </c>
       <c r="B280" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
       </c>
       <c r="D280" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
       <c r="E280" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
       <c r="F280" t="s">
         <v>20</v>
@@ -9889,16 +9874,16 @@
         <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>855</v>
+        <v>815</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
       </c>
       <c r="D281" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
       <c r="E281" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
       <c r="F281" t="s">
         <v>20</v>
@@ -9912,16 +9897,13 @@
         <v>7</v>
       </c>
       <c r="B282" t="s">
-        <v>858</v>
-      </c>
-      <c r="C282" t="s">
-        <v>28</v>
+        <v>818</v>
       </c>
       <c r="D282" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
       <c r="E282" t="s">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="F282" t="s">
         <v>20</v>
@@ -9935,16 +9917,16 @@
         <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>861</v>
+        <v>821</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
       </c>
       <c r="D283" t="s">
-        <v>862</v>
+        <v>822</v>
       </c>
       <c r="E283" t="s">
-        <v>863</v>
+        <v>823</v>
       </c>
       <c r="F283" t="s">
         <v>20</v>
@@ -9958,16 +9940,16 @@
         <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>864</v>
+        <v>824</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
       </c>
       <c r="D284" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="E284" t="s">
-        <v>866</v>
+        <v>826</v>
       </c>
       <c r="F284" t="s">
         <v>20</v>
@@ -9981,16 +9963,16 @@
         <v>7</v>
       </c>
       <c r="B285" t="s">
-        <v>867</v>
+        <v>827</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
       </c>
       <c r="D285" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
       <c r="E285" t="s">
-        <v>869</v>
+        <v>829</v>
       </c>
       <c r="F285" t="s">
         <v>20</v>
@@ -10004,16 +9986,16 @@
         <v>7</v>
       </c>
       <c r="B286" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
       </c>
       <c r="D286" t="s">
-        <v>871</v>
+        <v>831</v>
       </c>
       <c r="E286" t="s">
-        <v>872</v>
+        <v>832</v>
       </c>
       <c r="F286" t="s">
         <v>20</v>
@@ -10027,16 +10009,16 @@
         <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
       </c>
       <c r="D287" t="s">
-        <v>874</v>
+        <v>834</v>
       </c>
       <c r="E287" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
       <c r="F287" t="s">
         <v>20</v>
@@ -10050,16 +10032,16 @@
         <v>7</v>
       </c>
       <c r="B288" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
       </c>
       <c r="D288" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
       <c r="E288" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
       <c r="F288" t="s">
         <v>20</v>
@@ -10070,19 +10052,22 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B289" t="s">
-        <v>879</v>
+        <v>839</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
       </c>
       <c r="D289" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="E289" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
       <c r="F289" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G289" t="s">
         <v>12</v>
@@ -10090,19 +10075,22 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B290" t="s">
-        <v>882</v>
+        <v>842</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
       </c>
       <c r="D290" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
       <c r="E290" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
       <c r="F290" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G290" t="s">
         <v>12</v>
@@ -10113,16 +10101,16 @@
         <v>7</v>
       </c>
       <c r="B291" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
       </c>
       <c r="D291" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
       <c r="E291" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
       <c r="F291" t="s">
         <v>20</v>
@@ -10133,16 +10121,16 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B292" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="D292" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
       <c r="E292" t="s">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="F292" t="s">
         <v>11</v>
@@ -10153,16 +10141,16 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B293" t="s">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="D293" t="s">
-        <v>892</v>
+        <v>852</v>
       </c>
       <c r="E293" t="s">
-        <v>893</v>
+        <v>853</v>
       </c>
       <c r="F293" t="s">
         <v>11</v>
@@ -10176,13 +10164,16 @@
         <v>7</v>
       </c>
       <c r="B294" t="s">
-        <v>894</v>
+        <v>854</v>
+      </c>
+      <c r="C294" t="s">
+        <v>28</v>
       </c>
       <c r="D294" t="s">
-        <v>895</v>
+        <v>855</v>
       </c>
       <c r="E294" t="s">
-        <v>896</v>
+        <v>856</v>
       </c>
       <c r="F294" t="s">
         <v>20</v>
@@ -10193,16 +10184,16 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B295" t="s">
-        <v>897</v>
+        <v>857</v>
       </c>
       <c r="D295" t="s">
-        <v>898</v>
+        <v>858</v>
       </c>
       <c r="E295" t="s">
-        <v>899</v>
+        <v>859</v>
       </c>
       <c r="F295" t="s">
         <v>11</v>
@@ -10216,13 +10207,13 @@
         <v>7</v>
       </c>
       <c r="B296" t="s">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="D296" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="E296" t="s">
-        <v>902</v>
+        <v>862</v>
       </c>
       <c r="F296" t="s">
         <v>11</v>
@@ -10233,16 +10224,16 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B297" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
       <c r="D297" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
       <c r="E297" t="s">
-        <v>905</v>
+        <v>865</v>
       </c>
       <c r="F297" t="s">
         <v>11</v>
@@ -10256,19 +10247,16 @@
         <v>7</v>
       </c>
       <c r="B298" t="s">
-        <v>906</v>
-      </c>
-      <c r="C298" t="s">
-        <v>28</v>
+        <v>866</v>
       </c>
       <c r="D298" t="s">
-        <v>907</v>
+        <v>867</v>
       </c>
       <c r="E298" t="s">
-        <v>908</v>
+        <v>868</v>
       </c>
       <c r="F298" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G298" t="s">
         <v>12</v>
@@ -10279,13 +10267,13 @@
         <v>7</v>
       </c>
       <c r="B299" t="s">
-        <v>909</v>
+        <v>869</v>
       </c>
       <c r="D299" t="s">
-        <v>910</v>
+        <v>870</v>
       </c>
       <c r="E299" t="s">
-        <v>911</v>
+        <v>871</v>
       </c>
       <c r="F299" t="s">
         <v>11</v>
@@ -10296,19 +10284,22 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B300" t="s">
-        <v>912</v>
+        <v>872</v>
+      </c>
+      <c r="C300" t="s">
+        <v>28</v>
       </c>
       <c r="D300" t="s">
-        <v>913</v>
+        <v>873</v>
       </c>
       <c r="E300" t="s">
-        <v>914</v>
+        <v>874</v>
       </c>
       <c r="F300" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G300" t="s">
         <v>12</v>
@@ -10319,13 +10310,13 @@
         <v>7</v>
       </c>
       <c r="B301" t="s">
-        <v>915</v>
+        <v>875</v>
       </c>
       <c r="D301" t="s">
-        <v>916</v>
+        <v>876</v>
       </c>
       <c r="E301" t="s">
-        <v>917</v>
+        <v>877</v>
       </c>
       <c r="F301" t="s">
         <v>11</v>
@@ -10336,16 +10327,16 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B302" t="s">
-        <v>918</v>
+        <v>878</v>
       </c>
       <c r="D302" t="s">
-        <v>919</v>
+        <v>879</v>
       </c>
       <c r="E302" t="s">
-        <v>920</v>
+        <v>880</v>
       </c>
       <c r="F302" t="s">
         <v>11</v>
@@ -10356,16 +10347,16 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="B303" t="s">
-        <v>921</v>
+        <v>881</v>
       </c>
       <c r="D303" t="s">
-        <v>922</v>
+        <v>882</v>
       </c>
       <c r="E303" t="s">
-        <v>923</v>
+        <v>883</v>
       </c>
       <c r="F303" t="s">
         <v>11</v>
@@ -10376,16 +10367,16 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B304" t="s">
-        <v>924</v>
+        <v>884</v>
       </c>
       <c r="D304" t="s">
-        <v>925</v>
+        <v>885</v>
       </c>
       <c r="E304" t="s">
-        <v>926</v>
+        <v>886</v>
       </c>
       <c r="F304" t="s">
         <v>11</v>
@@ -10396,19 +10387,19 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B305" t="s">
-        <v>927</v>
+        <v>887</v>
       </c>
       <c r="D305" t="s">
-        <v>928</v>
+        <v>888</v>
       </c>
       <c r="E305" t="s">
-        <v>929</v>
+        <v>889</v>
       </c>
       <c r="F305" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G305" t="s">
         <v>12</v>
@@ -10416,16 +10407,16 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B306" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="D306" t="s">
-        <v>931</v>
+        <v>891</v>
       </c>
       <c r="E306" t="s">
-        <v>932</v>
+        <v>892</v>
       </c>
       <c r="F306" t="s">
         <v>11</v>
@@ -10439,16 +10430,13 @@
         <v>7</v>
       </c>
       <c r="B307" t="s">
-        <v>933</v>
-      </c>
-      <c r="C307" t="s">
-        <v>28</v>
+        <v>893</v>
       </c>
       <c r="D307" t="s">
-        <v>934</v>
+        <v>894</v>
       </c>
       <c r="E307" t="s">
-        <v>935</v>
+        <v>895</v>
       </c>
       <c r="F307" t="s">
         <v>20</v>
@@ -10462,13 +10450,13 @@
         <v>7</v>
       </c>
       <c r="B308" t="s">
-        <v>936</v>
+        <v>896</v>
       </c>
       <c r="D308" t="s">
-        <v>937</v>
+        <v>897</v>
       </c>
       <c r="E308" t="s">
-        <v>938</v>
+        <v>898</v>
       </c>
       <c r="F308" t="s">
         <v>11</v>
@@ -10482,16 +10470,19 @@
         <v>7</v>
       </c>
       <c r="B309" t="s">
-        <v>939</v>
+        <v>899</v>
+      </c>
+      <c r="C309" t="s">
+        <v>28</v>
       </c>
       <c r="D309" t="s">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="E309" t="s">
-        <v>941</v>
+        <v>901</v>
       </c>
       <c r="F309" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G309" t="s">
         <v>12</v>
@@ -10499,16 +10490,16 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B310" t="s">
-        <v>942</v>
+        <v>902</v>
       </c>
       <c r="D310" t="s">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="E310" t="s">
-        <v>944</v>
+        <v>904</v>
       </c>
       <c r="F310" t="s">
         <v>11</v>
@@ -10522,13 +10513,13 @@
         <v>7</v>
       </c>
       <c r="B311" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="D311" t="s">
-        <v>946</v>
+        <v>906</v>
       </c>
       <c r="E311" t="s">
-        <v>947</v>
+        <v>907</v>
       </c>
       <c r="F311" t="s">
         <v>11</v>
@@ -10539,16 +10530,16 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B312" t="s">
-        <v>948</v>
+        <v>908</v>
       </c>
       <c r="D312" t="s">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="E312" t="s">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="F312" t="s">
         <v>11</v>
@@ -10559,16 +10550,16 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B313" t="s">
-        <v>951</v>
+        <v>911</v>
       </c>
       <c r="D313" t="s">
-        <v>952</v>
+        <v>912</v>
       </c>
       <c r="E313" t="s">
-        <v>953</v>
+        <v>913</v>
       </c>
       <c r="F313" t="s">
         <v>11</v>
@@ -10582,13 +10573,13 @@
         <v>7</v>
       </c>
       <c r="B314" t="s">
-        <v>954</v>
+        <v>914</v>
       </c>
       <c r="D314" t="s">
-        <v>955</v>
+        <v>915</v>
       </c>
       <c r="E314" t="s">
-        <v>956</v>
+        <v>916</v>
       </c>
       <c r="F314" t="s">
         <v>11</v>
@@ -10599,16 +10590,16 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B315" t="s">
-        <v>957</v>
+        <v>917</v>
       </c>
       <c r="D315" t="s">
-        <v>958</v>
+        <v>918</v>
       </c>
       <c r="E315" t="s">
-        <v>959</v>
+        <v>919</v>
       </c>
       <c r="F315" t="s">
         <v>11</v>
@@ -10622,13 +10613,13 @@
         <v>7</v>
       </c>
       <c r="B316" t="s">
-        <v>960</v>
+        <v>920</v>
       </c>
       <c r="D316" t="s">
-        <v>961</v>
+        <v>921</v>
       </c>
       <c r="E316" t="s">
-        <v>962</v>
+        <v>922</v>
       </c>
       <c r="F316" t="s">
         <v>11</v>
@@ -10642,13 +10633,13 @@
         <v>7</v>
       </c>
       <c r="B317" t="s">
-        <v>963</v>
+        <v>923</v>
       </c>
       <c r="D317" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
       <c r="E317" t="s">
-        <v>965</v>
+        <v>925</v>
       </c>
       <c r="F317" t="s">
         <v>11</v>
@@ -10662,16 +10653,16 @@
         <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>966</v>
+        <v>926</v>
       </c>
       <c r="D318" t="s">
-        <v>967</v>
+        <v>927</v>
       </c>
       <c r="E318" t="s">
-        <v>968</v>
+        <v>928</v>
       </c>
       <c r="F318" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G318" t="s">
         <v>12</v>
@@ -10682,13 +10673,13 @@
         <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>969</v>
+        <v>929</v>
       </c>
       <c r="D319" t="s">
-        <v>970</v>
+        <v>930</v>
       </c>
       <c r="E319" t="s">
-        <v>971</v>
+        <v>931</v>
       </c>
       <c r="F319" t="s">
         <v>11</v>
@@ -10702,16 +10693,16 @@
         <v>7</v>
       </c>
       <c r="B320" t="s">
-        <v>972</v>
+        <v>932</v>
       </c>
       <c r="D320" t="s">
-        <v>973</v>
+        <v>933</v>
       </c>
       <c r="E320" t="s">
-        <v>974</v>
+        <v>934</v>
       </c>
       <c r="F320" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G320" t="s">
         <v>12</v>
@@ -10722,13 +10713,13 @@
         <v>7</v>
       </c>
       <c r="B321" t="s">
-        <v>975</v>
+        <v>935</v>
       </c>
       <c r="D321" t="s">
-        <v>976</v>
+        <v>936</v>
       </c>
       <c r="E321" t="s">
-        <v>977</v>
+        <v>937</v>
       </c>
       <c r="F321" t="s">
         <v>11</v>
@@ -10742,19 +10733,16 @@
         <v>7</v>
       </c>
       <c r="B322" t="s">
-        <v>978</v>
-      </c>
-      <c r="C322" t="s">
-        <v>28</v>
+        <v>938</v>
       </c>
       <c r="D322" t="s">
-        <v>979</v>
+        <v>939</v>
       </c>
       <c r="E322" t="s">
-        <v>980</v>
+        <v>940</v>
       </c>
       <c r="F322" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G322" t="s">
         <v>12</v>
@@ -10765,13 +10753,13 @@
         <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>981</v>
+        <v>941</v>
       </c>
       <c r="D323" t="s">
-        <v>982</v>
+        <v>942</v>
       </c>
       <c r="E323" t="s">
-        <v>983</v>
+        <v>943</v>
       </c>
       <c r="F323" t="s">
         <v>11</v>
@@ -10785,16 +10773,19 @@
         <v>7</v>
       </c>
       <c r="B324" t="s">
-        <v>984</v>
+        <v>944</v>
+      </c>
+      <c r="C324" t="s">
+        <v>28</v>
       </c>
       <c r="D324" t="s">
-        <v>985</v>
+        <v>945</v>
       </c>
       <c r="E324" t="s">
-        <v>986</v>
+        <v>946</v>
       </c>
       <c r="F324" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G324" t="s">
         <v>12</v>
@@ -10805,16 +10796,16 @@
         <v>7</v>
       </c>
       <c r="B325" t="s">
-        <v>987</v>
+        <v>947</v>
       </c>
       <c r="D325" t="s">
-        <v>988</v>
+        <v>948</v>
       </c>
       <c r="E325" t="s">
-        <v>989</v>
+        <v>949</v>
       </c>
       <c r="F325" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G325" t="s">
         <v>12</v>
@@ -10822,16 +10813,16 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B326" t="s">
-        <v>990</v>
+        <v>950</v>
       </c>
       <c r="D326" t="s">
-        <v>991</v>
+        <v>951</v>
       </c>
       <c r="E326" t="s">
-        <v>992</v>
+        <v>952</v>
       </c>
       <c r="F326" t="s">
         <v>11</v>
@@ -10845,16 +10836,16 @@
         <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>993</v>
+        <v>953</v>
       </c>
       <c r="D327" t="s">
-        <v>994</v>
+        <v>954</v>
       </c>
       <c r="E327" t="s">
-        <v>995</v>
+        <v>955</v>
       </c>
       <c r="F327" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G327" t="s">
         <v>12</v>
@@ -10862,16 +10853,16 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B328" t="s">
-        <v>996</v>
+        <v>956</v>
       </c>
       <c r="D328" t="s">
-        <v>997</v>
+        <v>957</v>
       </c>
       <c r="E328" t="s">
-        <v>998</v>
+        <v>958</v>
       </c>
       <c r="F328" t="s">
         <v>11</v>
@@ -10885,13 +10876,13 @@
         <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>999</v>
+        <v>959</v>
       </c>
       <c r="D329" t="s">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="E329" t="s">
-        <v>1001</v>
+        <v>961</v>
       </c>
       <c r="F329" t="s">
         <v>11</v>
@@ -10905,16 +10896,16 @@
         <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>1002</v>
+        <v>962</v>
       </c>
       <c r="D330" t="s">
-        <v>1003</v>
+        <v>963</v>
       </c>
       <c r="E330" t="s">
-        <v>1004</v>
+        <v>964</v>
       </c>
       <c r="F330" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G330" t="s">
         <v>12</v>
@@ -10925,19 +10916,16 @@
         <v>7</v>
       </c>
       <c r="B331" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C331" t="s">
-        <v>28</v>
+        <v>965</v>
       </c>
       <c r="D331" t="s">
-        <v>1006</v>
+        <v>966</v>
       </c>
       <c r="E331" t="s">
-        <v>392</v>
+        <v>967</v>
       </c>
       <c r="F331" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G331" t="s">
         <v>12</v>
@@ -10948,16 +10936,16 @@
         <v>7</v>
       </c>
       <c r="B332" t="s">
-        <v>1007</v>
+        <v>968</v>
       </c>
       <c r="D332" t="s">
-        <v>1008</v>
+        <v>969</v>
       </c>
       <c r="E332" t="s">
-        <v>1009</v>
+        <v>970</v>
       </c>
       <c r="F332" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G332" t="s">
         <v>12</v>
@@ -10965,19 +10953,22 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B333" t="s">
-        <v>1010</v>
+        <v>971</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
       </c>
       <c r="D333" t="s">
-        <v>1011</v>
+        <v>972</v>
       </c>
       <c r="E333" t="s">
-        <v>1012</v>
+        <v>379</v>
       </c>
       <c r="F333" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G333" t="s">
         <v>12</v>
@@ -10988,16 +10979,16 @@
         <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>1013</v>
+        <v>973</v>
       </c>
       <c r="D334" t="s">
-        <v>1014</v>
+        <v>974</v>
       </c>
       <c r="E334" t="s">
-        <v>1015</v>
+        <v>975</v>
       </c>
       <c r="F334" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G334" t="s">
         <v>12</v>
@@ -11005,16 +10996,16 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B335" t="s">
-        <v>1016</v>
+        <v>976</v>
       </c>
       <c r="D335" t="s">
-        <v>1017</v>
+        <v>977</v>
       </c>
       <c r="E335" t="s">
-        <v>1018</v>
+        <v>978</v>
       </c>
       <c r="F335" t="s">
         <v>11</v>
@@ -11025,19 +11016,19 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>1019</v>
+        <v>979</v>
       </c>
       <c r="D336" t="s">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="E336" t="s">
-        <v>1021</v>
+        <v>981</v>
       </c>
       <c r="F336" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G336" t="s">
         <v>12</v>
@@ -11045,16 +11036,16 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>1022</v>
+        <v>982</v>
       </c>
       <c r="D337" t="s">
-        <v>1023</v>
+        <v>983</v>
       </c>
       <c r="E337" t="s">
-        <v>1024</v>
+        <v>984</v>
       </c>
       <c r="F337" t="s">
         <v>11</v>
@@ -11065,16 +11056,16 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B338" t="s">
-        <v>1025</v>
+        <v>985</v>
       </c>
       <c r="D338" t="s">
-        <v>1026</v>
+        <v>986</v>
       </c>
       <c r="E338" t="s">
-        <v>1027</v>
+        <v>987</v>
       </c>
       <c r="F338" t="s">
         <v>11</v>
@@ -11085,22 +11076,19 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B339" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C339" t="s">
-        <v>28</v>
+        <v>988</v>
       </c>
       <c r="D339" t="s">
-        <v>1029</v>
+        <v>989</v>
       </c>
       <c r="E339" t="s">
-        <v>1030</v>
+        <v>990</v>
       </c>
       <c r="F339" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G339" t="s">
         <v>12</v>
@@ -11111,16 +11099,19 @@
         <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>1031</v>
+        <v>991</v>
+      </c>
+      <c r="C340" t="s">
+        <v>28</v>
       </c>
       <c r="D340" t="s">
-        <v>1032</v>
+        <v>992</v>
       </c>
       <c r="E340" t="s">
-        <v>1033</v>
+        <v>993</v>
       </c>
       <c r="F340" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G340" t="s">
         <v>12</v>
@@ -11128,16 +11119,16 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B341" t="s">
-        <v>1034</v>
+        <v>994</v>
       </c>
       <c r="D341" t="s">
-        <v>1035</v>
+        <v>995</v>
       </c>
       <c r="E341" t="s">
-        <v>1036</v>
+        <v>996</v>
       </c>
       <c r="F341" t="s">
         <v>11</v>
@@ -11148,16 +11139,16 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B342" t="s">
-        <v>1037</v>
+        <v>997</v>
       </c>
       <c r="D342" t="s">
-        <v>1038</v>
+        <v>998</v>
       </c>
       <c r="E342" t="s">
-        <v>1039</v>
+        <v>999</v>
       </c>
       <c r="F342" t="s">
         <v>11</v>
@@ -11171,13 +11162,13 @@
         <v>7</v>
       </c>
       <c r="B343" t="s">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="D343" t="s">
-        <v>1041</v>
+        <v>1001</v>
       </c>
       <c r="E343" t="s">
-        <v>1042</v>
+        <v>1002</v>
       </c>
       <c r="F343" t="s">
         <v>11</v>
@@ -11188,16 +11179,16 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B344" t="s">
-        <v>1043</v>
+        <v>1003</v>
       </c>
       <c r="D344" t="s">
-        <v>1044</v>
+        <v>1004</v>
       </c>
       <c r="E344" t="s">
-        <v>1045</v>
+        <v>1005</v>
       </c>
       <c r="F344" t="s">
         <v>11</v>
@@ -11208,16 +11199,16 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B345" t="s">
-        <v>1046</v>
+        <v>1006</v>
       </c>
       <c r="D345" t="s">
-        <v>1047</v>
+        <v>1007</v>
       </c>
       <c r="E345" t="s">
-        <v>1048</v>
+        <v>1008</v>
       </c>
       <c r="F345" t="s">
         <v>11</v>
@@ -11231,13 +11222,13 @@
         <v>7</v>
       </c>
       <c r="B346" t="s">
-        <v>1049</v>
+        <v>1009</v>
       </c>
       <c r="D346" t="s">
-        <v>1050</v>
+        <v>1010</v>
       </c>
       <c r="E346" t="s">
-        <v>1051</v>
+        <v>1011</v>
       </c>
       <c r="F346" t="s">
         <v>11</v>
@@ -11248,16 +11239,16 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B347" t="s">
-        <v>1052</v>
+        <v>1012</v>
       </c>
       <c r="D347" t="s">
-        <v>1053</v>
+        <v>1013</v>
       </c>
       <c r="E347" t="s">
-        <v>1054</v>
+        <v>1014</v>
       </c>
       <c r="F347" t="s">
         <v>11</v>
@@ -11268,16 +11259,16 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B348" t="s">
-        <v>1055</v>
+        <v>1015</v>
       </c>
       <c r="D348" t="s">
-        <v>1056</v>
+        <v>1016</v>
       </c>
       <c r="E348" t="s">
-        <v>1057</v>
+        <v>1017</v>
       </c>
       <c r="F348" t="s">
         <v>11</v>
@@ -11288,16 +11279,16 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B349" t="s">
-        <v>1058</v>
+        <v>1018</v>
       </c>
       <c r="D349" t="s">
-        <v>1059</v>
+        <v>1019</v>
       </c>
       <c r="E349" t="s">
-        <v>1060</v>
+        <v>1020</v>
       </c>
       <c r="F349" t="s">
         <v>11</v>
@@ -11308,16 +11299,16 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B350" t="s">
-        <v>1061</v>
+        <v>1021</v>
       </c>
       <c r="D350" t="s">
-        <v>1062</v>
+        <v>1022</v>
       </c>
       <c r="E350" t="s">
-        <v>1063</v>
+        <v>1023</v>
       </c>
       <c r="F350" t="s">
         <v>11</v>
@@ -11328,16 +11319,16 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B351" t="s">
-        <v>1064</v>
+        <v>1024</v>
       </c>
       <c r="D351" t="s">
-        <v>1065</v>
+        <v>1025</v>
       </c>
       <c r="E351" t="s">
-        <v>1066</v>
+        <v>1026</v>
       </c>
       <c r="F351" t="s">
         <v>11</v>
@@ -11348,16 +11339,16 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B352" t="s">
-        <v>1067</v>
+        <v>1027</v>
       </c>
       <c r="D352" t="s">
-        <v>1068</v>
+        <v>1028</v>
       </c>
       <c r="E352" t="s">
-        <v>1069</v>
+        <v>1029</v>
       </c>
       <c r="F352" t="s">
         <v>11</v>
@@ -11368,16 +11359,16 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="B353" t="s">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="D353" t="s">
-        <v>1071</v>
+        <v>1031</v>
       </c>
       <c r="E353" t="s">
-        <v>1072</v>
+        <v>1032</v>
       </c>
       <c r="F353" t="s">
         <v>11</v>
@@ -11391,13 +11382,13 @@
         <v>7</v>
       </c>
       <c r="B354" t="s">
-        <v>1073</v>
+        <v>1033</v>
       </c>
       <c r="D354" t="s">
-        <v>1074</v>
+        <v>1034</v>
       </c>
       <c r="E354" t="s">
-        <v>1075</v>
+        <v>1035</v>
       </c>
       <c r="F354" t="s">
         <v>11</v>
@@ -11411,13 +11402,13 @@
         <v>7</v>
       </c>
       <c r="B355" t="s">
-        <v>1076</v>
+        <v>1036</v>
       </c>
       <c r="D355" t="s">
-        <v>1077</v>
+        <v>1037</v>
       </c>
       <c r="E355" t="s">
-        <v>1078</v>
+        <v>1038</v>
       </c>
       <c r="F355" t="s">
         <v>11</v>
@@ -11431,13 +11422,13 @@
         <v>7</v>
       </c>
       <c r="B356" t="s">
-        <v>1079</v>
+        <v>1039</v>
       </c>
       <c r="D356" t="s">
-        <v>1080</v>
+        <v>1040</v>
       </c>
       <c r="E356" t="s">
-        <v>1081</v>
+        <v>1041</v>
       </c>
       <c r="F356" t="s">
         <v>11</v>
@@ -11451,13 +11442,13 @@
         <v>7</v>
       </c>
       <c r="B357" t="s">
-        <v>1082</v>
+        <v>1042</v>
       </c>
       <c r="D357" t="s">
-        <v>1083</v>
+        <v>1043</v>
       </c>
       <c r="E357" t="s">
-        <v>1084</v>
+        <v>1044</v>
       </c>
       <c r="F357" t="s">
         <v>11</v>
@@ -11471,13 +11462,13 @@
         <v>7</v>
       </c>
       <c r="B358" t="s">
-        <v>1085</v>
+        <v>1045</v>
       </c>
       <c r="D358" t="s">
-        <v>1086</v>
+        <v>1046</v>
       </c>
       <c r="E358" t="s">
-        <v>1087</v>
+        <v>1047</v>
       </c>
       <c r="F358" t="s">
         <v>11</v>
@@ -11488,16 +11479,16 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B359" t="s">
-        <v>1088</v>
+        <v>1048</v>
       </c>
       <c r="D359" t="s">
-        <v>1089</v>
+        <v>1049</v>
       </c>
       <c r="E359" t="s">
-        <v>1090</v>
+        <v>1050</v>
       </c>
       <c r="F359" t="s">
         <v>11</v>
@@ -11508,16 +11499,16 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B360" t="s">
-        <v>1091</v>
+        <v>1051</v>
       </c>
       <c r="D360" t="s">
-        <v>1092</v>
+        <v>1052</v>
       </c>
       <c r="E360" t="s">
-        <v>1093</v>
+        <v>1053</v>
       </c>
       <c r="F360" t="s">
         <v>11</v>
@@ -11528,16 +11519,16 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B361" t="s">
-        <v>1094</v>
+        <v>1054</v>
       </c>
       <c r="D361" t="s">
-        <v>1095</v>
+        <v>1055</v>
       </c>
       <c r="E361" t="s">
-        <v>1096</v>
+        <v>1056</v>
       </c>
       <c r="F361" t="s">
         <v>11</v>
@@ -11548,16 +11539,16 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B362" t="s">
-        <v>1097</v>
+        <v>1057</v>
       </c>
       <c r="D362" t="s">
-        <v>1098</v>
+        <v>1058</v>
       </c>
       <c r="E362" t="s">
-        <v>1099</v>
+        <v>1059</v>
       </c>
       <c r="F362" t="s">
         <v>11</v>
@@ -11568,16 +11559,16 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B363" t="s">
-        <v>1100</v>
+        <v>1060</v>
       </c>
       <c r="D363" t="s">
-        <v>1101</v>
+        <v>1061</v>
       </c>
       <c r="E363" t="s">
-        <v>1102</v>
+        <v>1062</v>
       </c>
       <c r="F363" t="s">
         <v>11</v>
@@ -11588,22 +11579,19 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B364" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C364" t="s">
-        <v>28</v>
+        <v>1063</v>
       </c>
       <c r="D364" t="s">
-        <v>1104</v>
+        <v>1064</v>
       </c>
       <c r="E364" t="s">
-        <v>1105</v>
+        <v>1065</v>
       </c>
       <c r="F364" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G364" t="s">
         <v>12</v>
@@ -11614,16 +11602,13 @@
         <v>7</v>
       </c>
       <c r="B365" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C365" t="s">
-        <v>28</v>
+        <v>1243</v>
       </c>
       <c r="D365" t="s">
-        <v>1107</v>
+        <v>1244</v>
       </c>
       <c r="E365" t="s">
-        <v>1108</v>
+        <v>1245</v>
       </c>
       <c r="F365" t="s">
         <v>20</v>
@@ -11637,16 +11622,19 @@
         <v>7</v>
       </c>
       <c r="B366" t="s">
-        <v>1109</v>
+        <v>1066</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
       </c>
       <c r="D366" t="s">
-        <v>1110</v>
+        <v>1067</v>
       </c>
       <c r="E366" t="s">
-        <v>1111</v>
+        <v>1068</v>
       </c>
       <c r="F366" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G366" t="s">
         <v>12</v>
@@ -11657,16 +11645,16 @@
         <v>7</v>
       </c>
       <c r="B367" t="s">
-        <v>1112</v>
+        <v>1069</v>
       </c>
       <c r="D367" t="s">
-        <v>1113</v>
+        <v>1070</v>
       </c>
       <c r="E367" t="s">
-        <v>1114</v>
+        <v>1071</v>
       </c>
       <c r="F367" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G367" t="s">
         <v>12</v>
@@ -11677,16 +11665,16 @@
         <v>7</v>
       </c>
       <c r="B368" t="s">
-        <v>1115</v>
+        <v>1072</v>
       </c>
       <c r="D368" t="s">
-        <v>1116</v>
+        <v>1073</v>
       </c>
       <c r="E368" t="s">
-        <v>1117</v>
+        <v>1074</v>
       </c>
       <c r="F368" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G368" t="s">
         <v>12</v>
@@ -11697,13 +11685,13 @@
         <v>7</v>
       </c>
       <c r="B369" t="s">
-        <v>1118</v>
+        <v>1075</v>
       </c>
       <c r="D369" t="s">
-        <v>1119</v>
+        <v>1076</v>
       </c>
       <c r="E369" t="s">
-        <v>1120</v>
+        <v>1077</v>
       </c>
       <c r="F369" t="s">
         <v>11</v>
@@ -11717,13 +11705,13 @@
         <v>7</v>
       </c>
       <c r="B370" t="s">
-        <v>1121</v>
+        <v>1078</v>
       </c>
       <c r="D370" t="s">
-        <v>1122</v>
+        <v>1079</v>
       </c>
       <c r="E370" t="s">
-        <v>1123</v>
+        <v>1080</v>
       </c>
       <c r="F370" t="s">
         <v>11</v>
@@ -11737,13 +11725,13 @@
         <v>7</v>
       </c>
       <c r="B371" t="s">
-        <v>1124</v>
+        <v>1081</v>
       </c>
       <c r="D371" t="s">
-        <v>1125</v>
+        <v>1082</v>
       </c>
       <c r="E371" t="s">
-        <v>1126</v>
+        <v>1083</v>
       </c>
       <c r="F371" t="s">
         <v>11</v>
@@ -11754,16 +11742,16 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B372" t="s">
-        <v>1127</v>
+        <v>1084</v>
       </c>
       <c r="D372" t="s">
-        <v>1128</v>
+        <v>1085</v>
       </c>
       <c r="E372" t="s">
-        <v>1129</v>
+        <v>1086</v>
       </c>
       <c r="F372" t="s">
         <v>11</v>
@@ -11774,16 +11762,16 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B373" t="s">
-        <v>1130</v>
+        <v>1087</v>
       </c>
       <c r="D373" t="s">
-        <v>1131</v>
+        <v>1088</v>
       </c>
       <c r="E373" t="s">
-        <v>1132</v>
+        <v>1089</v>
       </c>
       <c r="F373" t="s">
         <v>11</v>
@@ -11797,13 +11785,13 @@
         <v>7</v>
       </c>
       <c r="B374" t="s">
-        <v>1133</v>
+        <v>1090</v>
       </c>
       <c r="D374" t="s">
-        <v>1134</v>
+        <v>1091</v>
       </c>
       <c r="E374" t="s">
-        <v>1135</v>
+        <v>1092</v>
       </c>
       <c r="F374" t="s">
         <v>11</v>
@@ -11817,13 +11805,13 @@
         <v>7</v>
       </c>
       <c r="B375" t="s">
-        <v>1136</v>
+        <v>1093</v>
       </c>
       <c r="D375" t="s">
-        <v>1137</v>
+        <v>1094</v>
       </c>
       <c r="E375" t="s">
-        <v>1138</v>
+        <v>1095</v>
       </c>
       <c r="F375" t="s">
         <v>11</v>
@@ -11834,16 +11822,16 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>1139</v>
+        <v>1096</v>
       </c>
       <c r="D376" t="s">
-        <v>1140</v>
+        <v>1097</v>
       </c>
       <c r="E376" t="s">
-        <v>1141</v>
+        <v>1098</v>
       </c>
       <c r="F376" t="s">
         <v>11</v>
@@ -11854,16 +11842,16 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B377" t="s">
-        <v>1142</v>
+        <v>1099</v>
       </c>
       <c r="D377" t="s">
-        <v>1143</v>
+        <v>1100</v>
       </c>
       <c r="E377" t="s">
-        <v>1144</v>
+        <v>1101</v>
       </c>
       <c r="F377" t="s">
         <v>11</v>
@@ -11877,13 +11865,13 @@
         <v>7</v>
       </c>
       <c r="B378" t="s">
-        <v>1145</v>
+        <v>1102</v>
       </c>
       <c r="D378" t="s">
-        <v>1146</v>
+        <v>1103</v>
       </c>
       <c r="E378" t="s">
-        <v>1147</v>
+        <v>1104</v>
       </c>
       <c r="F378" t="s">
         <v>11</v>
@@ -11897,16 +11885,16 @@
         <v>7</v>
       </c>
       <c r="B379" t="s">
-        <v>1148</v>
+        <v>1105</v>
       </c>
       <c r="D379" t="s">
-        <v>1149</v>
+        <v>1106</v>
       </c>
       <c r="E379" t="s">
-        <v>1150</v>
+        <v>1107</v>
       </c>
       <c r="F379" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G379" t="s">
         <v>12</v>
@@ -11917,16 +11905,16 @@
         <v>7</v>
       </c>
       <c r="B380" t="s">
-        <v>1151</v>
+        <v>1108</v>
       </c>
       <c r="D380" t="s">
-        <v>1152</v>
+        <v>1109</v>
       </c>
       <c r="E380" t="s">
-        <v>1153</v>
+        <v>1110</v>
       </c>
       <c r="F380" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G380" t="s">
         <v>12</v>
@@ -11937,13 +11925,13 @@
         <v>7</v>
       </c>
       <c r="B381" t="s">
-        <v>1154</v>
+        <v>1111</v>
       </c>
       <c r="D381" t="s">
-        <v>1155</v>
+        <v>1112</v>
       </c>
       <c r="E381" t="s">
-        <v>1156</v>
+        <v>1113</v>
       </c>
       <c r="F381" t="s">
         <v>11</v>
@@ -11954,16 +11942,16 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B382" t="s">
-        <v>1157</v>
+        <v>1114</v>
       </c>
       <c r="D382" t="s">
-        <v>1158</v>
+        <v>1115</v>
       </c>
       <c r="E382" t="s">
-        <v>1159</v>
+        <v>1116</v>
       </c>
       <c r="F382" t="s">
         <v>11</v>
@@ -11974,16 +11962,16 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B383" t="s">
-        <v>1160</v>
+        <v>1117</v>
       </c>
       <c r="D383" t="s">
-        <v>1161</v>
+        <v>1118</v>
       </c>
       <c r="E383" t="s">
-        <v>1162</v>
+        <v>1119</v>
       </c>
       <c r="F383" t="s">
         <v>11</v>
@@ -11997,13 +11985,13 @@
         <v>7</v>
       </c>
       <c r="B384" t="s">
-        <v>1163</v>
+        <v>1120</v>
       </c>
       <c r="D384" t="s">
-        <v>1164</v>
+        <v>1121</v>
       </c>
       <c r="E384" t="s">
-        <v>1165</v>
+        <v>1122</v>
       </c>
       <c r="F384" t="s">
         <v>11</v>
@@ -12017,13 +12005,13 @@
         <v>7</v>
       </c>
       <c r="B385" t="s">
-        <v>1166</v>
+        <v>1123</v>
       </c>
       <c r="D385" t="s">
-        <v>1167</v>
+        <v>1124</v>
       </c>
       <c r="E385" t="s">
-        <v>1168</v>
+        <v>1125</v>
       </c>
       <c r="F385" t="s">
         <v>11</v>
@@ -12037,13 +12025,13 @@
         <v>7</v>
       </c>
       <c r="B386" t="s">
-        <v>1169</v>
+        <v>1126</v>
       </c>
       <c r="D386" t="s">
-        <v>1170</v>
+        <v>1127</v>
       </c>
       <c r="E386" t="s">
-        <v>1171</v>
+        <v>1128</v>
       </c>
       <c r="F386" t="s">
         <v>11</v>
@@ -12057,16 +12045,16 @@
         <v>7</v>
       </c>
       <c r="B387" t="s">
-        <v>1172</v>
+        <v>1129</v>
       </c>
       <c r="D387" t="s">
-        <v>1173</v>
+        <v>1130</v>
       </c>
       <c r="E387" t="s">
-        <v>1174</v>
+        <v>1131</v>
       </c>
       <c r="F387" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G387" t="s">
         <v>12</v>
@@ -12074,19 +12062,19 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B388" t="s">
-        <v>1175</v>
+        <v>1132</v>
       </c>
       <c r="D388" t="s">
-        <v>1176</v>
+        <v>1133</v>
       </c>
       <c r="E388" t="s">
-        <v>1177</v>
+        <v>1134</v>
       </c>
       <c r="F388" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G388" t="s">
         <v>12</v>
@@ -12094,22 +12082,19 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B389" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C389" t="s">
-        <v>1179</v>
+        <v>1135</v>
       </c>
       <c r="D389" t="s">
-        <v>1180</v>
+        <v>1136</v>
       </c>
       <c r="E389" t="s">
-        <v>1181</v>
+        <v>1137</v>
       </c>
       <c r="F389" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G389" t="s">
         <v>12</v>
@@ -12117,19 +12102,22 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1182</v>
+        <v>7</v>
       </c>
       <c r="B390" t="s">
-        <v>1183</v>
+        <v>1138</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1139</v>
       </c>
       <c r="D390" t="s">
-        <v>1184</v>
+        <v>1140</v>
       </c>
       <c r="E390" t="s">
-        <v>1185</v>
+        <v>1141</v>
       </c>
       <c r="F390" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G390" t="s">
         <v>12</v>
@@ -12137,22 +12125,19 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>7</v>
+        <v>1142</v>
       </c>
       <c r="B391" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C391" t="s">
-        <v>28</v>
+        <v>1143</v>
       </c>
       <c r="D391" t="s">
-        <v>1187</v>
+        <v>1144</v>
       </c>
       <c r="E391" t="s">
-        <v>1188</v>
+        <v>1145</v>
       </c>
       <c r="F391" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G391" t="s">
         <v>12</v>
@@ -12163,16 +12148,19 @@
         <v>7</v>
       </c>
       <c r="B392" t="s">
-        <v>1189</v>
+        <v>1146</v>
+      </c>
+      <c r="C392" t="s">
+        <v>28</v>
       </c>
       <c r="D392" t="s">
-        <v>1190</v>
+        <v>1246</v>
       </c>
       <c r="E392" t="s">
-        <v>1191</v>
+        <v>1147</v>
       </c>
       <c r="F392" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G392" t="s">
         <v>12</v>
@@ -12183,13 +12171,13 @@
         <v>7</v>
       </c>
       <c r="B393" t="s">
-        <v>1192</v>
+        <v>1148</v>
       </c>
       <c r="D393" t="s">
-        <v>1193</v>
+        <v>1149</v>
       </c>
       <c r="E393" t="s">
-        <v>1194</v>
+        <v>1150</v>
       </c>
       <c r="F393" t="s">
         <v>11</v>
@@ -12203,13 +12191,13 @@
         <v>7</v>
       </c>
       <c r="B394" t="s">
-        <v>1195</v>
+        <v>1151</v>
       </c>
       <c r="D394" t="s">
-        <v>1196</v>
+        <v>1152</v>
       </c>
       <c r="E394" t="s">
-        <v>1197</v>
+        <v>1153</v>
       </c>
       <c r="F394" t="s">
         <v>11</v>
@@ -12220,16 +12208,16 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B395" t="s">
-        <v>1198</v>
+        <v>1154</v>
       </c>
       <c r="D395" t="s">
-        <v>1199</v>
+        <v>1155</v>
       </c>
       <c r="E395" t="s">
-        <v>1200</v>
+        <v>1156</v>
       </c>
       <c r="F395" t="s">
         <v>11</v>
@@ -12240,16 +12228,16 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B396" t="s">
-        <v>1201</v>
+        <v>1157</v>
       </c>
       <c r="D396" t="s">
-        <v>1202</v>
+        <v>1158</v>
       </c>
       <c r="E396" t="s">
-        <v>1203</v>
+        <v>1159</v>
       </c>
       <c r="F396" t="s">
         <v>11</v>
@@ -12260,16 +12248,16 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B397" t="s">
-        <v>1204</v>
+        <v>1160</v>
       </c>
       <c r="D397" t="s">
-        <v>1205</v>
+        <v>1161</v>
       </c>
       <c r="E397" t="s">
-        <v>1206</v>
+        <v>1162</v>
       </c>
       <c r="F397" t="s">
         <v>11</v>
@@ -12280,16 +12268,16 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B398" t="s">
-        <v>1207</v>
+        <v>1163</v>
       </c>
       <c r="D398" t="s">
-        <v>1208</v>
+        <v>1164</v>
       </c>
       <c r="E398" t="s">
-        <v>1209</v>
+        <v>1165</v>
       </c>
       <c r="F398" t="s">
         <v>11</v>
@@ -12303,19 +12291,16 @@
         <v>7</v>
       </c>
       <c r="B399" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C399" t="s">
-        <v>1211</v>
+        <v>1166</v>
       </c>
       <c r="D399" t="s">
-        <v>1212</v>
+        <v>1167</v>
       </c>
       <c r="E399" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="F399" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G399" t="s">
         <v>12</v>
@@ -12326,16 +12311,19 @@
         <v>7</v>
       </c>
       <c r="B400" t="s">
-        <v>1213</v>
+        <v>1169</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1170</v>
       </c>
       <c r="D400" t="s">
-        <v>1214</v>
+        <v>1171</v>
       </c>
       <c r="E400" t="s">
-        <v>1215</v>
+        <v>1134</v>
       </c>
       <c r="F400" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G400" t="s">
         <v>12</v>
@@ -12343,16 +12331,16 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B401" t="s">
-        <v>1216</v>
+        <v>1172</v>
       </c>
       <c r="D401" t="s">
-        <v>1217</v>
+        <v>1173</v>
       </c>
       <c r="E401" t="s">
-        <v>1218</v>
+        <v>1174</v>
       </c>
       <c r="F401" t="s">
         <v>11</v>
@@ -12363,16 +12351,16 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B402" t="s">
-        <v>1219</v>
+        <v>1175</v>
       </c>
       <c r="D402" t="s">
-        <v>1220</v>
+        <v>1176</v>
       </c>
       <c r="E402" t="s">
-        <v>1221</v>
+        <v>1177</v>
       </c>
       <c r="F402" t="s">
         <v>11</v>
@@ -12383,16 +12371,16 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B403" t="s">
-        <v>1222</v>
+        <v>1178</v>
       </c>
       <c r="D403" t="s">
-        <v>1223</v>
+        <v>1179</v>
       </c>
       <c r="E403" t="s">
-        <v>1224</v>
+        <v>1180</v>
       </c>
       <c r="F403" t="s">
         <v>11</v>
@@ -12403,22 +12391,19 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B404" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C404" t="s">
-        <v>1226</v>
+        <v>1181</v>
       </c>
       <c r="D404" t="s">
-        <v>1227</v>
+        <v>1182</v>
       </c>
       <c r="E404" t="s">
-        <v>1228</v>
+        <v>1183</v>
       </c>
       <c r="F404" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G404" t="s">
         <v>12</v>
@@ -12426,16 +12411,16 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B405" t="s">
-        <v>1229</v>
+        <v>1184</v>
       </c>
       <c r="D405" t="s">
-        <v>1230</v>
+        <v>1185</v>
       </c>
       <c r="E405" t="s">
-        <v>1231</v>
+        <v>1186</v>
       </c>
       <c r="F405" t="s">
         <v>11</v>
@@ -12446,16 +12431,16 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B406" t="s">
-        <v>1232</v>
+        <v>1187</v>
       </c>
       <c r="D406" t="s">
-        <v>1233</v>
+        <v>1188</v>
       </c>
       <c r="E406" t="s">
-        <v>1234</v>
+        <v>1189</v>
       </c>
       <c r="F406" t="s">
         <v>11</v>
@@ -12469,13 +12454,13 @@
         <v>7</v>
       </c>
       <c r="B407" t="s">
-        <v>1235</v>
+        <v>1190</v>
       </c>
       <c r="D407" t="s">
-        <v>1236</v>
+        <v>1191</v>
       </c>
       <c r="E407" t="s">
-        <v>1237</v>
+        <v>1192</v>
       </c>
       <c r="F407" t="s">
         <v>11</v>
@@ -12486,16 +12471,16 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B408" t="s">
-        <v>1238</v>
+        <v>1193</v>
       </c>
       <c r="D408" t="s">
-        <v>1239</v>
+        <v>1194</v>
       </c>
       <c r="E408" t="s">
-        <v>1240</v>
+        <v>1195</v>
       </c>
       <c r="F408" t="s">
         <v>11</v>
@@ -12509,13 +12494,13 @@
         <v>7</v>
       </c>
       <c r="B409" t="s">
-        <v>1241</v>
+        <v>1196</v>
       </c>
       <c r="D409" t="s">
-        <v>1242</v>
+        <v>1197</v>
       </c>
       <c r="E409" t="s">
-        <v>1243</v>
+        <v>1198</v>
       </c>
       <c r="F409" t="s">
         <v>11</v>
@@ -12529,13 +12514,13 @@
         <v>7</v>
       </c>
       <c r="B410" t="s">
-        <v>1244</v>
+        <v>1199</v>
       </c>
       <c r="D410" t="s">
-        <v>1245</v>
+        <v>1200</v>
       </c>
       <c r="E410" t="s">
-        <v>1246</v>
+        <v>1201</v>
       </c>
       <c r="F410" t="s">
         <v>11</v>
